--- a/biology/Zoologie/Hygrobiidae/Hygrobiidae.xlsx
+++ b/biology/Zoologie/Hygrobiidae/Hygrobiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hygrobiidae sont une famille d'insectes coléoptères du sous-ordre des adéphages.
 </t>
@@ -511,14 +523,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Hygrobiidae est décrite en 1878 par l'entomologiste français Maurice Régimbart (1852-1907)[1].
-Selon Paleobiology Database, GBIF, BioLib et The Taxonomicon en 2023, le nom retenu pour cette famille est Hygrobiidae (Régimbart, 1878), bien que Pelobiidae (Erichson, 1837) aurait pu avoir la priorité. Néanmoins, le genre Hygrobia (Latreille, 1804) a la priorité sur Paelobius (Schoenherr, 1808) et Pelobius (Erichson, 1832)[1],[2],[3],[4].
-Genre type
-Selon Paleobiology Database en 2023, le genre type est Hygrobia.
-Fossiles
-Cette famille a une collection de fossiles référencés, venant d'Allemagne, de l'espèce Pelobius cretzschmari, du Chattien de l'Oligocène supérieur soit de 28,4 à 23,03 Ma avant notre ère.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Hygrobiidae est décrite en 1878 par l'entomologiste français Maurice Régimbart (1852-1907).
+Selon Paleobiology Database, GBIF, BioLib et The Taxonomicon en 2023, le nom retenu pour cette famille est Hygrobiidae (Régimbart, 1878), bien que Pelobiidae (Erichson, 1837) aurait pu avoir la priorité. Néanmoins, le genre Hygrobia (Latreille, 1804) a la priorité sur Paelobius (Schoenherr, 1808) et Pelobius (Erichson, 1832).
 </t>
         </is>
       </c>
@@ -544,22 +554,167 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genre type</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, le genre type est Hygrobia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hygrobiidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hygrobiidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille a une collection de fossiles référencés, venant d'Allemagne, de l'espèce Pelobius cretzschmari, du Chattien de l'Oligocène supérieur soit de 28,4 à 23,03 Ma avant notre ère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hygrobiidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hygrobiidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib en 2023, la famille est restée monotypique avec pour seul genre Hygrobia, qui a deux synonymes, Paelobius et Pelobius[3].
-Liste d'espèces
-Selon BioLib en 2023, on recense six espèces actuelles et une fossile[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib en 2023, la famille est restée monotypique avec pour seul genre Hygrobia, qui a deux synonymes, Paelobius et Pelobius.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hygrobiidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hygrobiidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon BioLib en 2023, on recense six espèces actuelles et une fossile :
 Hygrobia australasiae (Clark, 1862)
 Hygrobia davidi Bedel, 1883
 Hygrobia hermanni (Fabricius, 1775)
 Hygrobia maculata Britton (d), 1981
 Hygrobia nigra (Clark, 1862)
-Hygrobia wattsi Lars Hendrich (d), 2001
-Espèce fossile
-†Hygrobia cretzschmari von Heyden &amp; von Heyden, 1866</t>
+Hygrobia wattsi Lars Hendrich (d), 2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hygrobiidae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hygrobiidae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Espèce fossile</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>†Hygrobia cretzschmari von Heyden &amp; von Heyden, 1866</t>
         </is>
       </c>
     </row>
